--- a/biology/Botanique/Forêt_en_Espagne/Forêt_en_Espagne.xlsx
+++ b/biology/Botanique/Forêt_en_Espagne/Forêt_en_Espagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Espagne</t>
+          <t>Forêt_en_Espagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts en Espagne couvrent 229 736 km2 (soit 45 % du territoire national), dont 88 000 km² exploités régulièrement[1]. L'Espagne se situe en 4e place en Europe pour le taux de couverture forestière[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts en Espagne couvrent 229 736 km2 (soit 45 % du territoire national), dont 88 000 km² exploités régulièrement. L'Espagne se situe en 4e place en Europe pour le taux de couverture forestière.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Espagne</t>
+          <t>Forêt_en_Espagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La destruction de la forêt en Espagne a été progressive au Moyen Âge, mais beaucoup plus rapide à l'époque récente[3]. La crise forestière commence au XVe siècle, avec la découverte du nouveau monde et l'expansion de l'Espagne. La construction navale utilise beaucoup de bois, et l'agriculture se développe 
-Un vaste programme de reboisement a été mis en œuvre à partir de 1940[1].
-En raison du climat, les forêts sont particulièrement sensibles aux incendies[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La destruction de la forêt en Espagne a été progressive au Moyen Âge, mais beaucoup plus rapide à l'époque récente. La crise forestière commence au XVe siècle, avec la découverte du nouveau monde et l'expansion de l'Espagne. La construction navale utilise beaucoup de bois, et l'agriculture se développe 
+Un vaste programme de reboisement a été mis en œuvre à partir de 1940.
+En raison du climat, les forêts sont particulièrement sensibles aux incendies.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Espagne</t>
+          <t>Forêt_en_Espagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété la plus répandue est le pin maritime qui représente 20,2 % du total[1], devant le pin d'Alep et le pin sylvestre.
-On trouve aussi des forêts de chênes. La répartition des pluies détermine en grande partie la répartition des espèces végétales, zone humide correspondant à la zone septentrionale et occidentale, la zone sèche occupant le reste du territoire; les véritables forêts se concentrent surtout dans la zone humide[3].
-Dans les Pyrénées, ce sont les forêts de pinèdes qui dominent, avec des feuillus de type chêne vert/chêne liège, ainsi que des hêtres aux extrémités[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété la plus répandue est le pin maritime qui représente 20,2 % du total, devant le pin d'Alep et le pin sylvestre.
+On trouve aussi des forêts de chênes. La répartition des pluies détermine en grande partie la répartition des espèces végétales, zone humide correspondant à la zone septentrionale et occidentale, la zone sèche occupant le reste du territoire; les véritables forêts se concentrent surtout dans la zone humide.
+Dans les Pyrénées, ce sont les forêts de pinèdes qui dominent, avec des feuillus de type chêne vert/chêne liège, ainsi que des hêtres aux extrémités.
 			Parc naturel protégé de les Cerros à Alcalá de Henares (Communauté de Madrid)
 			Chênaie de Barcia à Lalín (Galice)
 			Répartition des espèces par région
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Espagne</t>
+          <t>Forêt_en_Espagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts espagnoles sont réparties en trois groupes[3]. Il y a elles qui sont déclarées d'intérêt public (qui ont une influence sur le régime des eaux), celles qui dépendent du ministère des finances (leur conservation correspond à des besoins locaux) et puis tout le reste appartient à des particuliers. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts espagnoles sont réparties en trois groupes. Il y a elles qui sont déclarées d'intérêt public (qui ont une influence sur le régime des eaux), celles qui dépendent du ministère des finances (leur conservation correspond à des besoins locaux) et puis tout le reste appartient à des particuliers. 
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Espagne</t>
+          <t>Forêt_en_Espagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Exploitation forestière</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est vendu sur pied dans la majorité des cas. La récolte était de 6 millions de m3 par an dans les années 1960, et s'est par la suite stabilisée à 14 millions de m3[1]. L'Espagne manque de bois, et doit importer des produits forestiers.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est vendu sur pied dans la majorité des cas. La récolte était de 6 millions de m3 par an dans les années 1960, et s'est par la suite stabilisée à 14 millions de m3. L'Espagne manque de bois, et doit importer des produits forestiers.
 </t>
         </is>
       </c>
